--- a/src/ZeitAnalyse.xlsx
+++ b/src/ZeitAnalyse.xlsx
@@ -162,6 +162,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -303,10 +304,11 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="8077199" y="776287"/>
+      <a:off x="4867273" y="52386"/>
       <a:ext cx="5905499" cy="3514724"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -357,6 +359,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Gesamtzeit für 1000 Zyklen</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr bwMode="auto">
@@ -528,6 +552,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -669,10 +694,11 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="7886699" y="4900612"/>
+      <a:off x="10086973" y="785811"/>
       <a:ext cx="4552949" cy="2724149"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -712,16 +738,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333373</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409572</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -731,7 +757,7 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8077199" y="776287"/>
+        <a:off x="4867273" y="52386"/>
         <a:ext cx="5905499" cy="3514724"/>
       </xdr:xfrm>
       <a:graphic>
@@ -744,16 +770,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371473</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>390522</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161922</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -763,7 +789,7 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7886699" y="4900612"/>
+        <a:off x="10086973" y="785811"/>
         <a:ext cx="4552949" cy="2724149"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1569,12 +1595,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" ht="14.25">
+      <c r="A23">
+        <f>A19/A21</f>
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <f>B19/B21</f>
+        <v>24.636500000000002</v>
+      </c>
+      <c r="C23">
+        <f>C19/C21</f>
+        <v>25.782875000000001</v>
+      </c>
+      <c r="D23">
+        <f>D19/D21</f>
+        <v>25.138375</v>
+      </c>
+    </row>
     <row r="26" ht="14.25">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26">
-        <f>SUM(C26:S26)/A26</f>
+        <f>SUM(C26:R26)/A26</f>
         <v>31798.666666666668</v>
       </c>
       <c r="C26">
@@ -1585,6 +1629,18 @@
       </c>
       <c r="E26">
         <v>32699</v>
+      </c>
+      <c r="S26">
+        <f>MAX(C26:R26)</f>
+        <v>32699</v>
+      </c>
+      <c r="T26">
+        <f>MIN(C26:R26)</f>
+        <v>30865</v>
+      </c>
+      <c r="U26">
+        <f>S26-T26</f>
+        <v>1834</v>
       </c>
     </row>
     <row r="27" ht="14.25">
@@ -1592,7 +1648,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <f>SUM(C27:S27)/A27</f>
+        <f>SUM(C27:R27)/A27</f>
         <v>32479.75</v>
       </c>
       <c r="C27">
@@ -1606,6 +1662,18 @@
       </c>
       <c r="F27">
         <v>30985</v>
+      </c>
+      <c r="S27">
+        <f>MAX(C27:R27)</f>
+        <v>33955</v>
+      </c>
+      <c r="T27">
+        <f>MIN(C27:R27)</f>
+        <v>30985</v>
+      </c>
+      <c r="U27">
+        <f>S27-T27</f>
+        <v>2970</v>
       </c>
     </row>
     <row r="28" ht="14.25">
@@ -1613,7 +1681,7 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <f>SUM(C28:S28)/A28</f>
+        <f>SUM(C28:R28)/A28</f>
         <v>32120.400000000001</v>
       </c>
       <c r="C28">
@@ -1630,6 +1698,18 @@
       </c>
       <c r="G28">
         <v>34388</v>
+      </c>
+      <c r="S28">
+        <f>MAX(C28:R28)</f>
+        <v>34388</v>
+      </c>
+      <c r="T28">
+        <f>MIN(C28:R28)</f>
+        <v>29544</v>
+      </c>
+      <c r="U28">
+        <f>S28-T28</f>
+        <v>4844</v>
       </c>
     </row>
     <row r="29" ht="14.25">
@@ -1637,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <f>SUM(C29:S29)/A29</f>
+        <f>SUM(C29:R29)/A29</f>
         <v>27670</v>
       </c>
       <c r="C29">
@@ -1657,6 +1737,18 @@
       </c>
       <c r="H29">
         <v>29925</v>
+      </c>
+      <c r="S29">
+        <f>MAX(C29:R29)</f>
+        <v>29925</v>
+      </c>
+      <c r="T29">
+        <f>MIN(C29:R29)</f>
+        <v>25215</v>
+      </c>
+      <c r="U29">
+        <f>S29-T29</f>
+        <v>4710</v>
       </c>
     </row>
     <row r="30" ht="14.25">
@@ -1664,7 +1756,7 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <f>SUM(C30:S30)/A30</f>
+        <f>SUM(C30:R30)/A30</f>
         <v>26551.428571428572</v>
       </c>
       <c r="C30">
@@ -1687,6 +1779,18 @@
       </c>
       <c r="I30">
         <v>24454</v>
+      </c>
+      <c r="S30">
+        <f>MAX(C30:R30)</f>
+        <v>29046</v>
+      </c>
+      <c r="T30">
+        <f>MIN(C30:R30)</f>
+        <v>24454</v>
+      </c>
+      <c r="U30">
+        <f>S30-T30</f>
+        <v>4592</v>
       </c>
     </row>
     <row r="31" ht="14.25">
@@ -1694,7 +1798,7 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <f>SUM(C31:S31)/A31</f>
+        <f>SUM(C31:R31)/A31</f>
         <v>26374.5</v>
       </c>
       <c r="C31">
@@ -1720,6 +1824,18 @@
       </c>
       <c r="J31">
         <v>24645</v>
+      </c>
+      <c r="S31">
+        <f>MAX(C31:R31)</f>
+        <v>29043</v>
+      </c>
+      <c r="T31">
+        <f>MIN(C31:R31)</f>
+        <v>24645</v>
+      </c>
+      <c r="U31">
+        <f>S31-T31</f>
+        <v>4398</v>
       </c>
     </row>
     <row r="32" ht="14.25">
@@ -1727,8 +1843,47 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <f>SUM(C32:S32)/A32</f>
-        <v>0</v>
+        <f>SUM(C32:R32)/A32</f>
+        <v>25725.888888888891</v>
+      </c>
+      <c r="C32">
+        <v>25798</v>
+      </c>
+      <c r="D32">
+        <v>24799</v>
+      </c>
+      <c r="E32">
+        <v>24031</v>
+      </c>
+      <c r="F32">
+        <v>27917</v>
+      </c>
+      <c r="G32">
+        <v>26967</v>
+      </c>
+      <c r="H32">
+        <v>25895</v>
+      </c>
+      <c r="I32">
+        <v>27316</v>
+      </c>
+      <c r="J32">
+        <v>24927</v>
+      </c>
+      <c r="K32">
+        <v>23883</v>
+      </c>
+      <c r="S32">
+        <f>MAX(C32:R32)</f>
+        <v>27917</v>
+      </c>
+      <c r="T32">
+        <f>MIN(C32:R32)</f>
+        <v>23883</v>
+      </c>
+      <c r="U32">
+        <f>S32-T32</f>
+        <v>4034</v>
       </c>
     </row>
     <row r="33" ht="14.25">
@@ -1736,8 +1891,50 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <f>SUM(C33:S33)/A33</f>
-        <v>0</v>
+        <f>SUM(C33:R33)/A33</f>
+        <v>24432.200000000001</v>
+      </c>
+      <c r="C33">
+        <v>25333</v>
+      </c>
+      <c r="D33">
+        <v>24488</v>
+      </c>
+      <c r="E33">
+        <v>23347</v>
+      </c>
+      <c r="F33">
+        <v>22527</v>
+      </c>
+      <c r="G33">
+        <v>26430</v>
+      </c>
+      <c r="H33">
+        <v>25521</v>
+      </c>
+      <c r="I33">
+        <v>24479</v>
+      </c>
+      <c r="J33">
+        <v>23422</v>
+      </c>
+      <c r="K33">
+        <v>26460</v>
+      </c>
+      <c r="L33">
+        <v>22315</v>
+      </c>
+      <c r="S33">
+        <f>MAX(C33:R33)</f>
+        <v>26460</v>
+      </c>
+      <c r="T33">
+        <f>MIN(C33:R33)</f>
+        <v>22315</v>
+      </c>
+      <c r="U33">
+        <f>S33-T33</f>
+        <v>4145</v>
       </c>
     </row>
     <row r="34" ht="14.25">
@@ -1745,8 +1942,53 @@
         <v>11</v>
       </c>
       <c r="B34">
-        <f>SUM(C34:S34)/A34</f>
-        <v>0</v>
+        <f>SUM(C34:R34)/A34</f>
+        <v>26048.18181818182</v>
+      </c>
+      <c r="C34">
+        <v>27005</v>
+      </c>
+      <c r="D34">
+        <v>26177</v>
+      </c>
+      <c r="E34">
+        <v>25262</v>
+      </c>
+      <c r="F34">
+        <v>24290</v>
+      </c>
+      <c r="G34">
+        <v>28181</v>
+      </c>
+      <c r="H34">
+        <v>27348</v>
+      </c>
+      <c r="I34">
+        <v>26415</v>
+      </c>
+      <c r="J34">
+        <v>25591</v>
+      </c>
+      <c r="K34">
+        <v>24672</v>
+      </c>
+      <c r="L34">
+        <v>27963</v>
+      </c>
+      <c r="M34">
+        <v>23626</v>
+      </c>
+      <c r="S34">
+        <f>MAX(C34:R34)</f>
+        <v>28181</v>
+      </c>
+      <c r="T34">
+        <f>MIN(C34:R34)</f>
+        <v>23626</v>
+      </c>
+      <c r="U34">
+        <f>S34-T34</f>
+        <v>4555</v>
       </c>
     </row>
     <row r="35" ht="14.25">
@@ -1754,8 +1996,56 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <f>SUM(C35:S35)/A35</f>
-        <v>0</v>
+        <f>SUM(C35:R35)/A35</f>
+        <v>24204.25</v>
+      </c>
+      <c r="C35">
+        <v>26316</v>
+      </c>
+      <c r="D35">
+        <v>25545</v>
+      </c>
+      <c r="E35">
+        <v>24720</v>
+      </c>
+      <c r="F35">
+        <v>23910</v>
+      </c>
+      <c r="G35">
+        <v>23080</v>
+      </c>
+      <c r="H35">
+        <v>22243</v>
+      </c>
+      <c r="I35">
+        <v>26385</v>
+      </c>
+      <c r="J35">
+        <v>25352</v>
+      </c>
+      <c r="K35">
+        <v>24616</v>
+      </c>
+      <c r="L35">
+        <v>23722</v>
+      </c>
+      <c r="M35">
+        <v>22423</v>
+      </c>
+      <c r="N35">
+        <v>22139</v>
+      </c>
+      <c r="S35">
+        <f>MAX(C35:R35)</f>
+        <v>26385</v>
+      </c>
+      <c r="T35">
+        <f>MIN(C35:R35)</f>
+        <v>22139</v>
+      </c>
+      <c r="U35">
+        <f>S35-T35</f>
+        <v>4246</v>
       </c>
     </row>
     <row r="36" ht="14.25">
@@ -1763,8 +2053,59 @@
         <v>13</v>
       </c>
       <c r="B36">
-        <f>SUM(C36:S36)/A36</f>
-        <v>0</v>
+        <f>SUM(C36:R36)/A36</f>
+        <v>24846.76923076923</v>
+      </c>
+      <c r="C36">
+        <v>23334</v>
+      </c>
+      <c r="D36">
+        <v>27111</v>
+      </c>
+      <c r="E36">
+        <v>26309</v>
+      </c>
+      <c r="F36">
+        <v>25273</v>
+      </c>
+      <c r="G36">
+        <v>24256</v>
+      </c>
+      <c r="H36">
+        <v>23343</v>
+      </c>
+      <c r="I36">
+        <v>27274</v>
+      </c>
+      <c r="J36">
+        <v>26402</v>
+      </c>
+      <c r="K36">
+        <v>25298</v>
+      </c>
+      <c r="L36">
+        <v>24349</v>
+      </c>
+      <c r="M36">
+        <v>23360</v>
+      </c>
+      <c r="N36">
+        <v>24250</v>
+      </c>
+      <c r="O36">
+        <v>22449</v>
+      </c>
+      <c r="S36">
+        <f>MAX(C36:R36)</f>
+        <v>27274</v>
+      </c>
+      <c r="T36">
+        <f>MIN(C36:R36)</f>
+        <v>22449</v>
+      </c>
+      <c r="U36">
+        <f>S36-T36</f>
+        <v>4825</v>
       </c>
     </row>
     <row r="37" ht="14.25">
@@ -1772,8 +2113,62 @@
         <v>14</v>
       </c>
       <c r="B37">
-        <f>SUM(C37:S37)/A37</f>
-        <v>0</v>
+        <f>SUM(C37:R37)/A37</f>
+        <v>24595.642857142859</v>
+      </c>
+      <c r="C37">
+        <v>23873</v>
+      </c>
+      <c r="D37">
+        <v>22881</v>
+      </c>
+      <c r="E37">
+        <v>26913</v>
+      </c>
+      <c r="F37">
+        <v>26150</v>
+      </c>
+      <c r="G37">
+        <v>25279</v>
+      </c>
+      <c r="H37">
+        <v>23632</v>
+      </c>
+      <c r="I37">
+        <v>22645</v>
+      </c>
+      <c r="J37">
+        <v>26897</v>
+      </c>
+      <c r="K37">
+        <v>26036</v>
+      </c>
+      <c r="L37">
+        <v>25178</v>
+      </c>
+      <c r="M37">
+        <v>24340</v>
+      </c>
+      <c r="N37">
+        <v>23432</v>
+      </c>
+      <c r="O37">
+        <v>24615</v>
+      </c>
+      <c r="P37">
+        <v>22468</v>
+      </c>
+      <c r="S37">
+        <f>MAX(C37:R37)</f>
+        <v>26913</v>
+      </c>
+      <c r="T37">
+        <f>MIN(C37:R37)</f>
+        <v>22468</v>
+      </c>
+      <c r="U37">
+        <f>S37-T37</f>
+        <v>4445</v>
       </c>
     </row>
     <row r="38" ht="14.25">
@@ -1781,8 +2176,65 @@
         <v>15</v>
       </c>
       <c r="B38">
-        <f>SUM(C38:S38)/A38</f>
-        <v>0</v>
+        <f>SUM(C38:R38)/A38</f>
+        <v>24663.533333333333</v>
+      </c>
+      <c r="C38">
+        <v>25085</v>
+      </c>
+      <c r="D38">
+        <v>24327</v>
+      </c>
+      <c r="E38">
+        <v>23487</v>
+      </c>
+      <c r="F38">
+        <v>22646</v>
+      </c>
+      <c r="G38">
+        <v>26731</v>
+      </c>
+      <c r="H38">
+        <v>25756</v>
+      </c>
+      <c r="I38">
+        <v>24712</v>
+      </c>
+      <c r="J38">
+        <v>23686</v>
+      </c>
+      <c r="K38">
+        <v>22800</v>
+      </c>
+      <c r="L38">
+        <v>26835</v>
+      </c>
+      <c r="M38">
+        <v>25959</v>
+      </c>
+      <c r="N38">
+        <v>25087</v>
+      </c>
+      <c r="O38">
+        <v>24193</v>
+      </c>
+      <c r="P38">
+        <v>26325</v>
+      </c>
+      <c r="Q38">
+        <v>22324</v>
+      </c>
+      <c r="S38">
+        <f>MAX(C38:R38)</f>
+        <v>26835</v>
+      </c>
+      <c r="T38">
+        <f>MIN(C38:R38)</f>
+        <v>22324</v>
+      </c>
+      <c r="U38">
+        <f>S38-T38</f>
+        <v>4511</v>
       </c>
     </row>
     <row r="39" ht="14.25">
@@ -1792,6 +2244,18 @@
       <c r="B39">
         <f>B19</f>
         <v>24636.5</v>
+      </c>
+      <c r="S39">
+        <f>MAX(B1:B16)</f>
+        <v>27205</v>
+      </c>
+      <c r="T39">
+        <f>MIN(B1:B16)</f>
+        <v>22418</v>
+      </c>
+      <c r="U39">
+        <f>S39-T39</f>
+        <v>4787</v>
       </c>
     </row>
     <row r="40" ht="14.25"/>

--- a/src/ZeitAnalyse.xlsx
+++ b/src/ZeitAnalyse.xlsx
@@ -13,9 +13,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">Anzahl Zyklen</t>
+  </si>
+  <si>
+    <t>Gesamtzeit</t>
+  </si>
   <si>
     <t xml:space="preserve">ohne fehler da sonst nicht möglich</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>Zeit</t>
   </si>
 </sst>
 </file>
@@ -67,284 +79,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="100000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:tint val="100000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$11:$F$14</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$11:$G$14</c:f>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLeaderLines val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
-        <c:axId val="1028"/>
-        <c:axId val="1029"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1028"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr bwMode="auto">
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1029"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1029"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr bwMode="auto">
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1028"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr bwMode="auto">
-    <a:xfrm>
-      <a:off x="4867273" y="52386"/>
-      <a:ext cx="5905499" cy="3514724"/>
-    </a:xfrm>
-    <a:prstGeom prst="rect">
-      <a:avLst/>
-    </a:prstGeom>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -496,6 +230,9 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
+            <c:strRef>
+              <c:f>Sheet1!$A$26:$A$39</c:f>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -698,8 +435,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="10086973" y="785811"/>
-      <a:ext cx="4552949" cy="2724149"/>
+      <a:off x="4524372" y="957260"/>
+      <a:ext cx="4286248" cy="2795585"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -736,50 +473,44 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="8877297" y="950117"/>
+    <xdr:ext cx="4295774" cy="2819399"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="" hidden="0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8877297" y="950117"/>
+          <a:ext cx="4295774" cy="2819399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>333373</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:colOff>257172</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>409572</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276221</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>42860</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="" hidden="0"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="4867273" y="52386"/>
-        <a:ext cx="5905499" cy="3514724"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>371473</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>390522</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161922</xdr:rowOff>
+      <xdr:rowOff>133346</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -789,8 +520,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10086973" y="785811"/>
-        <a:ext cx="4552949" cy="2724149"/>
+        <a:off x="4524372" y="957260"/>
+        <a:ext cx="4286248" cy="2795585"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1441,6 +1172,12 @@
       <c r="D10">
         <v>60623</v>
       </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11">
@@ -1592,7 +1329,7 @@
     </row>
     <row r="22" ht="14.25">
       <c r="B22" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" ht="14.25">
@@ -1613,12 +1350,20 @@
         <v>25.138375</v>
       </c>
     </row>
+    <row r="25" ht="14.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="26" ht="14.25">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26">
-        <f>SUM(C26:R26)/A26</f>
+        <f t="shared" ref="B26:B38" si="0">SUM(C26:R26)/A26</f>
         <v>31798.666666666668</v>
       </c>
       <c r="C26">
@@ -1631,15 +1376,15 @@
         <v>32699</v>
       </c>
       <c r="S26">
-        <f>MAX(C26:R26)</f>
+        <f t="shared" ref="S26:S38" si="1">MAX(C26:R26)</f>
         <v>32699</v>
       </c>
       <c r="T26">
-        <f>MIN(C26:R26)</f>
+        <f t="shared" ref="T26:T38" si="2">MIN(C26:R26)</f>
         <v>30865</v>
       </c>
       <c r="U26">
-        <f>S26-T26</f>
+        <f t="shared" ref="U26:U39" si="3">S26-T26</f>
         <v>1834</v>
       </c>
     </row>
@@ -1648,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <f>SUM(C27:R27)/A27</f>
+        <f t="shared" si="0"/>
         <v>32479.75</v>
       </c>
       <c r="C27">
@@ -1664,15 +1409,15 @@
         <v>30985</v>
       </c>
       <c r="S27">
-        <f>MAX(C27:R27)</f>
+        <f t="shared" si="1"/>
         <v>33955</v>
       </c>
       <c r="T27">
-        <f>MIN(C27:R27)</f>
+        <f t="shared" si="2"/>
         <v>30985</v>
       </c>
       <c r="U27">
-        <f>S27-T27</f>
+        <f t="shared" si="3"/>
         <v>2970</v>
       </c>
     </row>
@@ -1681,7 +1426,7 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <f>SUM(C28:R28)/A28</f>
+        <f t="shared" si="0"/>
         <v>32120.400000000001</v>
       </c>
       <c r="C28">
@@ -1700,15 +1445,15 @@
         <v>34388</v>
       </c>
       <c r="S28">
-        <f>MAX(C28:R28)</f>
+        <f t="shared" si="1"/>
         <v>34388</v>
       </c>
       <c r="T28">
-        <f>MIN(C28:R28)</f>
+        <f t="shared" si="2"/>
         <v>29544</v>
       </c>
       <c r="U28">
-        <f>S28-T28</f>
+        <f t="shared" si="3"/>
         <v>4844</v>
       </c>
     </row>
@@ -1717,7 +1462,7 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <f>SUM(C29:R29)/A29</f>
+        <f t="shared" si="0"/>
         <v>27670</v>
       </c>
       <c r="C29">
@@ -1739,15 +1484,15 @@
         <v>29925</v>
       </c>
       <c r="S29">
-        <f>MAX(C29:R29)</f>
+        <f t="shared" si="1"/>
         <v>29925</v>
       </c>
       <c r="T29">
-        <f>MIN(C29:R29)</f>
+        <f t="shared" si="2"/>
         <v>25215</v>
       </c>
       <c r="U29">
-        <f>S29-T29</f>
+        <f t="shared" si="3"/>
         <v>4710</v>
       </c>
     </row>
@@ -1756,7 +1501,7 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <f>SUM(C30:R30)/A30</f>
+        <f t="shared" si="0"/>
         <v>26551.428571428572</v>
       </c>
       <c r="C30">
@@ -1781,15 +1526,15 @@
         <v>24454</v>
       </c>
       <c r="S30">
-        <f>MAX(C30:R30)</f>
+        <f t="shared" si="1"/>
         <v>29046</v>
       </c>
       <c r="T30">
-        <f>MIN(C30:R30)</f>
+        <f t="shared" si="2"/>
         <v>24454</v>
       </c>
       <c r="U30">
-        <f>S30-T30</f>
+        <f t="shared" si="3"/>
         <v>4592</v>
       </c>
     </row>
@@ -1798,7 +1543,7 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <f>SUM(C31:R31)/A31</f>
+        <f t="shared" si="0"/>
         <v>26374.5</v>
       </c>
       <c r="C31">
@@ -1826,15 +1571,15 @@
         <v>24645</v>
       </c>
       <c r="S31">
-        <f>MAX(C31:R31)</f>
+        <f t="shared" si="1"/>
         <v>29043</v>
       </c>
       <c r="T31">
-        <f>MIN(C31:R31)</f>
+        <f t="shared" si="2"/>
         <v>24645</v>
       </c>
       <c r="U31">
-        <f>S31-T31</f>
+        <f t="shared" si="3"/>
         <v>4398</v>
       </c>
     </row>
@@ -1843,7 +1588,7 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <f>SUM(C32:R32)/A32</f>
+        <f t="shared" si="0"/>
         <v>25725.888888888891</v>
       </c>
       <c r="C32">
@@ -1874,15 +1619,15 @@
         <v>23883</v>
       </c>
       <c r="S32">
-        <f>MAX(C32:R32)</f>
+        <f t="shared" si="1"/>
         <v>27917</v>
       </c>
       <c r="T32">
-        <f>MIN(C32:R32)</f>
+        <f t="shared" si="2"/>
         <v>23883</v>
       </c>
       <c r="U32">
-        <f>S32-T32</f>
+        <f t="shared" si="3"/>
         <v>4034</v>
       </c>
     </row>
@@ -1891,7 +1636,7 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <f>SUM(C33:R33)/A33</f>
+        <f t="shared" si="0"/>
         <v>24432.200000000001</v>
       </c>
       <c r="C33">
@@ -1925,15 +1670,15 @@
         <v>22315</v>
       </c>
       <c r="S33">
-        <f>MAX(C33:R33)</f>
+        <f t="shared" si="1"/>
         <v>26460</v>
       </c>
       <c r="T33">
-        <f>MIN(C33:R33)</f>
+        <f t="shared" si="2"/>
         <v>22315</v>
       </c>
       <c r="U33">
-        <f>S33-T33</f>
+        <f t="shared" si="3"/>
         <v>4145</v>
       </c>
     </row>
@@ -1942,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="B34">
-        <f>SUM(C34:R34)/A34</f>
+        <f t="shared" si="0"/>
         <v>26048.18181818182</v>
       </c>
       <c r="C34">
@@ -1979,15 +1724,15 @@
         <v>23626</v>
       </c>
       <c r="S34">
-        <f>MAX(C34:R34)</f>
+        <f t="shared" si="1"/>
         <v>28181</v>
       </c>
       <c r="T34">
-        <f>MIN(C34:R34)</f>
+        <f t="shared" si="2"/>
         <v>23626</v>
       </c>
       <c r="U34">
-        <f>S34-T34</f>
+        <f t="shared" si="3"/>
         <v>4555</v>
       </c>
     </row>
@@ -1996,7 +1741,7 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <f>SUM(C35:R35)/A35</f>
+        <f t="shared" si="0"/>
         <v>24204.25</v>
       </c>
       <c r="C35">
@@ -2036,15 +1781,15 @@
         <v>22139</v>
       </c>
       <c r="S35">
-        <f>MAX(C35:R35)</f>
+        <f t="shared" si="1"/>
         <v>26385</v>
       </c>
       <c r="T35">
-        <f>MIN(C35:R35)</f>
+        <f t="shared" si="2"/>
         <v>22139</v>
       </c>
       <c r="U35">
-        <f>S35-T35</f>
+        <f t="shared" si="3"/>
         <v>4246</v>
       </c>
     </row>
@@ -2053,7 +1798,7 @@
         <v>13</v>
       </c>
       <c r="B36">
-        <f>SUM(C36:R36)/A36</f>
+        <f t="shared" si="0"/>
         <v>24846.76923076923</v>
       </c>
       <c r="C36">
@@ -2096,15 +1841,15 @@
         <v>22449</v>
       </c>
       <c r="S36">
-        <f>MAX(C36:R36)</f>
+        <f t="shared" si="1"/>
         <v>27274</v>
       </c>
       <c r="T36">
-        <f>MIN(C36:R36)</f>
+        <f t="shared" si="2"/>
         <v>22449</v>
       </c>
       <c r="U36">
-        <f>S36-T36</f>
+        <f t="shared" si="3"/>
         <v>4825</v>
       </c>
     </row>
@@ -2113,7 +1858,7 @@
         <v>14</v>
       </c>
       <c r="B37">
-        <f>SUM(C37:R37)/A37</f>
+        <f t="shared" si="0"/>
         <v>24595.642857142859</v>
       </c>
       <c r="C37">
@@ -2159,15 +1904,15 @@
         <v>22468</v>
       </c>
       <c r="S37">
-        <f>MAX(C37:R37)</f>
+        <f t="shared" si="1"/>
         <v>26913</v>
       </c>
       <c r="T37">
-        <f>MIN(C37:R37)</f>
+        <f t="shared" si="2"/>
         <v>22468</v>
       </c>
       <c r="U37">
-        <f>S37-T37</f>
+        <f t="shared" si="3"/>
         <v>4445</v>
       </c>
     </row>
@@ -2176,7 +1921,7 @@
         <v>15</v>
       </c>
       <c r="B38">
-        <f>SUM(C38:R38)/A38</f>
+        <f t="shared" si="0"/>
         <v>24663.533333333333</v>
       </c>
       <c r="C38">
@@ -2225,15 +1970,15 @@
         <v>22324</v>
       </c>
       <c r="S38">
-        <f>MAX(C38:R38)</f>
+        <f t="shared" si="1"/>
         <v>26835</v>
       </c>
       <c r="T38">
-        <f>MIN(C38:R38)</f>
+        <f t="shared" si="2"/>
         <v>22324</v>
       </c>
       <c r="U38">
-        <f>S38-T38</f>
+        <f t="shared" si="3"/>
         <v>4511</v>
       </c>
     </row>
@@ -2254,7 +1999,7 @@
         <v>22418</v>
       </c>
       <c r="U39">
-        <f>S39-T39</f>
+        <f t="shared" si="3"/>
         <v>4787</v>
       </c>
     </row>
